--- a/Шаблон.xlsx
+++ b/Шаблон.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\money_maker\Desktop\NECARGO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{916A7BB4-AE3F-4F0B-917D-69C5FBBAA49A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17221409-7242-46BE-AA9A-4303CE99968C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Фото товара</t>
   </si>
@@ -31,23 +31,26 @@
     <t>Размер (ДхШхВ)</t>
   </si>
   <si>
-    <t>Вес одного товара</t>
-  </si>
-  <si>
     <t>Количество</t>
   </si>
   <si>
-    <t>Инв/пакинг</t>
+    <t>Доп. информация</t>
   </si>
   <si>
-    <t>Доп. информация</t>
+    <t>Код ТНВД (если есть)</t>
+  </si>
+  <si>
+    <t>Вес</t>
+  </si>
+  <si>
+    <t>Единица измерения</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -55,15 +58,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="14"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -84,7 +105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -94,14 +115,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FFCCCCCC"/>
       </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF356854"/>
       </right>
-      <top style="thin">
-        <color rgb="FF284E3F"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
@@ -114,9 +146,7 @@
       <right style="thin">
         <color rgb="FF356854"/>
       </right>
-      <top style="thin">
-        <color rgb="FF284E3F"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
@@ -126,21 +156,15 @@
       <left style="thin">
         <color rgb="FF356854"/>
       </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF284E3F"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FFCCCCCC"/>
       </right>
@@ -152,37 +176,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Название" xfId="1" builtinId="15"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="14">
     <dxf>
       <font>
         <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -190,6 +290,194 @@
           <bgColor theme="7"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="3"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="3"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="3"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="3"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="3"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="3"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="3"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="3"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color theme="7"/>
+        </left>
+        <right style="medium">
+          <color theme="7"/>
+        </right>
+        <top style="medium">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="3"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -218,9 +506,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Лист1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+      <tableStyleElement type="secondRowStripe" dxfId="11"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -235,17 +523,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица_отправки_товара" displayName="Таблица_отправки_товара" ref="A1:G20" headerRowDxfId="0">
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Фото товара"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Наименование"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Размер (ДхШхВ)"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Вес одного товара"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Количество"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Инв/пакинг"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Доп. информация"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица_отправки_товара" displayName="Таблица_отправки_товара" ref="A1:H20" headerRowDxfId="0" dataDxfId="10" tableBorderDxfId="9" dataCellStyle="Название">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Фото товара" dataDxfId="8" dataCellStyle="Название"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Наименование" dataDxfId="7" dataCellStyle="Название"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Размер (ДхШхВ)" dataDxfId="6" dataCellStyle="Название"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Вес" dataDxfId="5" dataCellStyle="Название"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Количество" dataDxfId="4" dataCellStyle="Название"/>
+    <tableColumn id="8" xr3:uid="{4EAFD33B-7389-489E-8A2F-348B6DFCE53F}" name="Единица измерения" dataDxfId="1" dataCellStyle="Название"/>
+    <tableColumn id="9" xr3:uid="{C1910DED-7385-489F-BDEF-22E95E8BBF58}" name="Код ТНВД (если есть)" dataDxfId="3" dataCellStyle="Название"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Доп. информация" dataDxfId="2" dataCellStyle="Название"/>
   </tableColumns>
-  <tableStyleInfo name="Лист1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight5" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -450,222 +739,245 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C6" s="9"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showDropDown="1" sqref="G2:G20 B2:E20" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="H2:H20 C7 B2:E5 B8:E20 B6:B7 D6:E7 F2:F20" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
